--- a/_site/DataViz/DataViz1/Data/Critiques.xlsx
+++ b/_site/DataViz/DataViz1/Data/Critiques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\zhoueo1009\VA\DataViz\DataViz1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A8C298-C74D-41DF-9491-02A3875AED19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F25871-E01F-421C-AF0D-7D31A4E8EB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{3C355F01-5F39-4B11-B885-A35E7B758B31}"/>
   </bookViews>
